--- a/Results/case1/0.7.xlsx
+++ b/Results/case1/0.7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice71\OneDrive\桌面\1118MDP\Results_new\case1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice71\OneDrive\文件\GitHub\MDP\Results\case1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_B98098C1C367E44EE72564B74F5DCE3A6745261A" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1E4E5A6F-17C6-458A-8FCF-D6B75C0AE6B1}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_B98098C1C367E44EE72564B74F5DCE3A6745261A" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B937B374-8167-42A8-B269-81D0F4776146}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="4065" windowWidth="2040" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -329,31 +329,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.88439999999999996</c:v>
+                  <c:v>0.91249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89959999999999996</c:v>
+                  <c:v>0.91469999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91920000000000002</c:v>
+                  <c:v>0.92579999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93689999999999996</c:v>
+                  <c:v>0.92710000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9345</c:v>
+                  <c:v>0.92720000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93530000000000002</c:v>
+                  <c:v>0.92490000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93459999999999999</c:v>
+                  <c:v>0.92649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92779999999999996</c:v>
+                  <c:v>0.92420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91549999999999998</c:v>
+                  <c:v>0.9254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1684,7 +1684,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1753,58 +1753,58 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.87380000000000002</v>
+        <v>0.9032</v>
       </c>
       <c r="C2">
-        <v>0.55359999999999998</v>
+        <v>0.54879999999999995</v>
       </c>
       <c r="D2">
-        <v>0.88719999999999999</v>
+        <v>0.91469999999999996</v>
       </c>
       <c r="E2">
-        <v>0.5494</v>
+        <v>0.54190000000000005</v>
       </c>
       <c r="F2">
-        <v>0.90610000000000002</v>
+        <v>0.91659999999999997</v>
       </c>
       <c r="G2">
-        <v>0.52029999999999998</v>
+        <v>0.51919999999999999</v>
       </c>
       <c r="H2">
-        <v>0.90649999999999997</v>
+        <v>0.91930000000000001</v>
       </c>
       <c r="I2">
-        <v>0.51939999999999997</v>
+        <v>0.51749999999999996</v>
       </c>
       <c r="J2">
-        <v>0.90629999999999999</v>
+        <v>0.91930000000000001</v>
       </c>
       <c r="K2">
-        <v>0.51849999999999996</v>
+        <v>0.51749999999999996</v>
       </c>
       <c r="L2">
-        <v>0.90629999999999999</v>
+        <v>0.91930000000000001</v>
       </c>
       <c r="M2">
-        <v>0.51849999999999996</v>
+        <v>0.51749999999999996</v>
       </c>
       <c r="N2">
-        <v>0.90720000000000001</v>
+        <v>0.91969999999999996</v>
       </c>
       <c r="O2">
-        <v>0.51749999999999996</v>
+        <v>0.51690000000000003</v>
       </c>
       <c r="P2">
-        <v>0.90710000000000002</v>
+        <v>0.91959999999999997</v>
       </c>
       <c r="Q2">
-        <v>0.51829999999999998</v>
+        <v>0.51729999999999998</v>
       </c>
       <c r="R2">
-        <v>0.89400000000000002</v>
+        <v>0.90059999999999996</v>
       </c>
       <c r="S2">
-        <v>0.52490000000000003</v>
+        <v>0.52700000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1812,58 +1812,58 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.7722</v>
+        <v>0.80969999999999998</v>
       </c>
       <c r="C3">
-        <v>0.6734</v>
+        <v>0.64370000000000005</v>
       </c>
       <c r="D3">
-        <v>0.78100000000000003</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="E3">
-        <v>0.62749999999999995</v>
+        <v>0.63490000000000002</v>
       </c>
       <c r="F3">
-        <v>0.7419</v>
+        <v>0.7964</v>
       </c>
       <c r="G3">
-        <v>0.69399999999999995</v>
+        <v>0.67669999999999997</v>
       </c>
       <c r="H3">
-        <v>0.74939999999999996</v>
+        <v>0.80710000000000004</v>
       </c>
       <c r="I3">
-        <v>0.68759999999999999</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="J3">
-        <v>0.83909999999999996</v>
+        <v>0.85570000000000002</v>
       </c>
       <c r="K3">
-        <v>0.57730000000000004</v>
+        <v>0.59079999999999999</v>
       </c>
       <c r="L3">
-        <v>0.90069999999999995</v>
+        <v>0.89649999999999996</v>
       </c>
       <c r="M3">
-        <v>0.51819999999999999</v>
+        <v>0.54959999999999998</v>
       </c>
       <c r="N3">
-        <v>0.8992</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="O3">
-        <v>0.51659999999999995</v>
+        <v>0.55520000000000003</v>
       </c>
       <c r="P3">
-        <v>0.91269999999999996</v>
+        <v>0.89319999999999999</v>
       </c>
       <c r="Q3">
-        <v>0.49759999999999999</v>
+        <v>0.54679999999999995</v>
       </c>
       <c r="R3">
-        <v>0.9153</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="S3">
-        <v>0.49459999999999998</v>
+        <v>0.52410000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1871,58 +1871,58 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.88439999999999996</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="C4">
-        <v>0.57389999999999997</v>
+        <v>0.53390000000000004</v>
       </c>
       <c r="D4">
-        <v>0.89959999999999996</v>
+        <v>0.90580000000000005</v>
       </c>
       <c r="E4">
-        <v>0.51980000000000004</v>
+        <v>0.52090000000000003</v>
       </c>
       <c r="F4">
-        <v>0.87380000000000002</v>
+        <v>0.90339999999999998</v>
       </c>
       <c r="G4">
-        <v>0.54800000000000004</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="H4">
-        <v>0.90939999999999999</v>
+        <v>0.92710000000000004</v>
       </c>
       <c r="I4">
-        <v>0.5101</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="J4">
-        <v>0.90080000000000005</v>
+        <v>0.90639999999999998</v>
       </c>
       <c r="K4">
-        <v>0.53049999999999997</v>
+        <v>0.55710000000000004</v>
       </c>
       <c r="L4">
-        <v>0.93530000000000002</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="M4">
-        <v>0.47520000000000001</v>
+        <v>0.52139999999999997</v>
       </c>
       <c r="N4">
-        <v>0.93459999999999999</v>
+        <v>0.92449999999999999</v>
       </c>
       <c r="O4">
-        <v>0.47610000000000002</v>
+        <v>0.52610000000000001</v>
       </c>
       <c r="P4">
-        <v>0.91569999999999996</v>
+        <v>0.92420000000000002</v>
       </c>
       <c r="Q4">
-        <v>0.49640000000000001</v>
+        <v>0.52149999999999996</v>
       </c>
       <c r="R4">
-        <v>0.9153</v>
+        <v>0.9254</v>
       </c>
       <c r="S4">
-        <v>0.49609999999999999</v>
+        <v>0.52370000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1930,58 +1930,58 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.82110000000000005</v>
+        <v>0.81679999999999997</v>
       </c>
       <c r="C5">
-        <v>0.63060000000000005</v>
+        <v>0.6603</v>
       </c>
       <c r="D5">
-        <v>0.83509999999999995</v>
+        <v>0.85980000000000001</v>
       </c>
       <c r="E5">
-        <v>0.61880000000000002</v>
+        <v>0.60740000000000005</v>
       </c>
       <c r="F5">
-        <v>0.90629999999999999</v>
+        <v>0.92579999999999996</v>
       </c>
       <c r="G5">
-        <v>0.50629999999999997</v>
+        <v>0.52329999999999999</v>
       </c>
       <c r="H5">
-        <v>0.91359999999999997</v>
+        <v>0.92479999999999996</v>
       </c>
       <c r="I5">
-        <v>0.50129999999999997</v>
+        <v>0.52</v>
       </c>
       <c r="J5">
-        <v>0.93220000000000003</v>
+        <v>0.92720000000000002</v>
       </c>
       <c r="K5">
-        <v>0.48480000000000001</v>
+        <v>0.52249999999999996</v>
       </c>
       <c r="L5">
-        <v>0.93520000000000003</v>
+        <v>0.92490000000000006</v>
       </c>
       <c r="M5">
-        <v>0.47520000000000001</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="N5">
-        <v>0.91569999999999996</v>
+        <v>0.92649999999999999</v>
       </c>
       <c r="O5">
-        <v>0.49480000000000002</v>
+        <v>0.5272</v>
       </c>
       <c r="P5">
-        <v>0.91569999999999996</v>
+        <v>0.92330000000000001</v>
       </c>
       <c r="Q5">
-        <v>0.49630000000000002</v>
+        <v>0.52270000000000005</v>
       </c>
       <c r="R5">
-        <v>0.91549999999999998</v>
+        <v>0.92479999999999996</v>
       </c>
       <c r="S5">
-        <v>0.49459999999999998</v>
+        <v>0.52459999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1989,58 +1989,58 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.76029999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="C6">
-        <v>0.6653</v>
+        <v>0.67120000000000002</v>
       </c>
       <c r="D6">
-        <v>0.85040000000000004</v>
+        <v>0.87239999999999995</v>
       </c>
       <c r="E6">
-        <v>0.60299999999999998</v>
+        <v>0.59719999999999995</v>
       </c>
       <c r="F6">
-        <v>0.90010000000000001</v>
+        <v>0.92090000000000005</v>
       </c>
       <c r="G6">
-        <v>0.50209999999999999</v>
+        <v>0.52270000000000005</v>
       </c>
       <c r="H6">
-        <v>0.91559999999999997</v>
+        <v>0.92479999999999996</v>
       </c>
       <c r="I6">
-        <v>0.49990000000000001</v>
+        <v>0.51919999999999999</v>
       </c>
       <c r="J6">
-        <v>0.9335</v>
+        <v>0.92430000000000001</v>
       </c>
       <c r="K6">
-        <v>0.48130000000000001</v>
+        <v>0.51859999999999995</v>
       </c>
       <c r="L6">
-        <v>0.93520000000000003</v>
+        <v>0.92479999999999996</v>
       </c>
       <c r="M6">
-        <v>0.47520000000000001</v>
+        <v>0.5222</v>
       </c>
       <c r="N6">
-        <v>0.93459999999999999</v>
+        <v>0.92579999999999996</v>
       </c>
       <c r="O6">
-        <v>0.47610000000000002</v>
+        <v>0.5272</v>
       </c>
       <c r="P6">
-        <v>0.91569999999999996</v>
+        <v>0.92220000000000002</v>
       </c>
       <c r="Q6">
-        <v>0.49630000000000002</v>
+        <v>0.51890000000000003</v>
       </c>
       <c r="R6">
-        <v>0.91549999999999998</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="S6">
-        <v>0.49459999999999998</v>
+        <v>0.52569999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2048,58 +2048,58 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.76380000000000003</v>
+        <v>0.76619999999999999</v>
       </c>
       <c r="C7">
-        <v>0.72629999999999995</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="D7">
-        <v>0.87029999999999996</v>
+        <v>0.88939999999999997</v>
       </c>
       <c r="E7">
-        <v>0.59519999999999995</v>
+        <v>0.59219999999999995</v>
       </c>
       <c r="F7">
-        <v>0.90010000000000001</v>
+        <v>0.92090000000000005</v>
       </c>
       <c r="G7">
-        <v>0.50039999999999996</v>
+        <v>0.52270000000000005</v>
       </c>
       <c r="H7">
-        <v>0.91490000000000005</v>
+        <v>0.92479999999999996</v>
       </c>
       <c r="I7">
-        <v>0.50029999999999997</v>
+        <v>0.51919999999999999</v>
       </c>
       <c r="J7">
-        <v>0.9335</v>
+        <v>0.92649999999999999</v>
       </c>
       <c r="K7">
-        <v>0.48130000000000001</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="L7">
-        <v>0.93520000000000003</v>
+        <v>0.92459999999999998</v>
       </c>
       <c r="M7">
-        <v>0.47520000000000001</v>
+        <v>0.52239999999999998</v>
       </c>
       <c r="N7">
-        <v>0.93459999999999999</v>
+        <v>0.92559999999999998</v>
       </c>
       <c r="O7">
-        <v>0.47610000000000002</v>
+        <v>0.5272</v>
       </c>
       <c r="P7">
-        <v>0.92079999999999995</v>
+        <v>0.92220000000000002</v>
       </c>
       <c r="Q7">
-        <v>0.50549999999999995</v>
+        <v>0.51890000000000003</v>
       </c>
       <c r="R7">
-        <v>0.91549999999999998</v>
+        <v>0.92379999999999995</v>
       </c>
       <c r="S7">
-        <v>0.49459999999999998</v>
+        <v>0.52029999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2107,58 +2107,58 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.63529999999999998</v>
+        <v>0.77859999999999996</v>
       </c>
       <c r="C8">
-        <v>0.36409999999999998</v>
+        <v>0.72819999999999996</v>
       </c>
       <c r="D8">
-        <v>0.86960000000000004</v>
+        <v>0.88929999999999998</v>
       </c>
       <c r="E8">
-        <v>0.59319999999999995</v>
+        <v>0.59240000000000004</v>
       </c>
       <c r="F8">
-        <v>0.91900000000000004</v>
+        <v>0.92449999999999999</v>
       </c>
       <c r="G8">
-        <v>0.4929</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="H8">
-        <v>0.91359999999999997</v>
+        <v>0.92479999999999996</v>
       </c>
       <c r="I8">
-        <v>0.49380000000000002</v>
+        <v>0.51919999999999999</v>
       </c>
       <c r="J8">
-        <v>0.9335</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="K8">
-        <v>0.48130000000000001</v>
+        <v>0.51880000000000004</v>
       </c>
       <c r="L8">
-        <v>0.93520000000000003</v>
+        <v>0.92459999999999998</v>
       </c>
       <c r="M8">
-        <v>0.47520000000000001</v>
+        <v>0.52239999999999998</v>
       </c>
       <c r="N8">
-        <v>0.93459999999999999</v>
+        <v>0.92559999999999998</v>
       </c>
       <c r="O8">
-        <v>0.47610000000000002</v>
+        <v>0.5272</v>
       </c>
       <c r="P8">
-        <v>0.92120000000000002</v>
+        <v>0.92220000000000002</v>
       </c>
       <c r="Q8">
-        <v>0.50560000000000005</v>
+        <v>0.51890000000000003</v>
       </c>
       <c r="R8">
-        <v>0.9153</v>
+        <v>0.92410000000000003</v>
       </c>
       <c r="S8">
-        <v>0.49609999999999999</v>
+        <v>0.52129999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2166,58 +2166,58 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.71179999999999999</v>
+        <v>0.77690000000000003</v>
       </c>
       <c r="C9">
-        <v>0.72340000000000004</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="D9">
-        <v>0.87050000000000005</v>
+        <v>0.88929999999999998</v>
       </c>
       <c r="E9">
-        <v>0.59309999999999996</v>
+        <v>0.59240000000000004</v>
       </c>
       <c r="F9">
-        <v>0.90010000000000001</v>
+        <v>0.91959999999999997</v>
       </c>
       <c r="G9">
-        <v>0.50039999999999996</v>
+        <v>0.52370000000000005</v>
       </c>
       <c r="H9">
-        <v>0.9365</v>
+        <v>0.92349999999999999</v>
       </c>
       <c r="I9">
-        <v>0.47910000000000003</v>
+        <v>0.51980000000000004</v>
       </c>
       <c r="J9">
-        <v>0.9335</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="K9">
-        <v>0.48130000000000001</v>
+        <v>0.51880000000000004</v>
       </c>
       <c r="L9">
-        <v>0.93520000000000003</v>
+        <v>0.9244</v>
       </c>
       <c r="M9">
-        <v>0.47520000000000001</v>
+        <v>0.52239999999999998</v>
       </c>
       <c r="N9">
-        <v>0.93459999999999999</v>
+        <v>0.92559999999999998</v>
       </c>
       <c r="O9">
-        <v>0.47610000000000002</v>
+        <v>0.5272</v>
       </c>
       <c r="P9">
-        <v>0.9214</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="Q9">
-        <v>0.50539999999999996</v>
+        <v>0.51670000000000005</v>
       </c>
       <c r="R9">
-        <v>0.91549999999999998</v>
+        <v>0.92369999999999997</v>
       </c>
       <c r="S9">
-        <v>0.49459999999999998</v>
+        <v>0.52010000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2225,58 +2225,58 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.74150000000000005</v>
+        <v>0.77839999999999998</v>
       </c>
       <c r="C10">
-        <v>0.71350000000000002</v>
+        <v>0.7268</v>
       </c>
       <c r="D10">
-        <v>0.86919999999999997</v>
+        <v>0.88970000000000005</v>
       </c>
       <c r="E10">
-        <v>0.59350000000000003</v>
+        <v>0.5917</v>
       </c>
       <c r="F10">
-        <v>0.91920000000000002</v>
+        <v>0.91959999999999997</v>
       </c>
       <c r="G10">
-        <v>0.49180000000000001</v>
+        <v>0.52370000000000005</v>
       </c>
       <c r="H10">
-        <v>0.93669999999999998</v>
+        <v>0.92269999999999996</v>
       </c>
       <c r="I10">
-        <v>0.47489999999999999</v>
+        <v>0.52010000000000001</v>
       </c>
       <c r="J10">
-        <v>0.9345</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="K10">
-        <v>0.47770000000000001</v>
+        <v>0.51880000000000004</v>
       </c>
       <c r="L10">
-        <v>0.93530000000000002</v>
+        <v>0.92449999999999999</v>
       </c>
       <c r="M10">
-        <v>0.47520000000000001</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="N10">
-        <v>0.93459999999999999</v>
+        <v>0.92559999999999998</v>
       </c>
       <c r="O10">
-        <v>0.47610000000000002</v>
+        <v>0.5272</v>
       </c>
       <c r="P10">
-        <v>0.9214</v>
+        <v>0.92130000000000001</v>
       </c>
       <c r="Q10">
-        <v>0.50539999999999996</v>
+        <v>0.51629999999999998</v>
       </c>
       <c r="R10">
-        <v>0.91549999999999998</v>
+        <v>0.92349999999999999</v>
       </c>
       <c r="S10">
-        <v>0.49459999999999998</v>
+        <v>0.5202</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2284,58 +2284,58 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.73570000000000002</v>
+        <v>0.7782</v>
       </c>
       <c r="C11">
-        <v>0.74670000000000003</v>
+        <v>0.72819999999999996</v>
       </c>
       <c r="D11">
-        <v>0.87050000000000005</v>
+        <v>0.88970000000000005</v>
       </c>
       <c r="E11">
-        <v>0.59530000000000005</v>
+        <v>0.5917</v>
       </c>
       <c r="F11">
-        <v>0.91920000000000002</v>
+        <v>0.91859999999999997</v>
       </c>
       <c r="G11">
-        <v>0.49180000000000001</v>
+        <v>0.52370000000000005</v>
       </c>
       <c r="H11">
-        <v>0.9365</v>
+        <v>0.92349999999999999</v>
       </c>
       <c r="I11">
-        <v>0.47920000000000001</v>
+        <v>0.51939999999999997</v>
       </c>
       <c r="J11">
-        <v>0.93440000000000001</v>
+        <v>0.92610000000000003</v>
       </c>
       <c r="K11">
-        <v>0.47770000000000001</v>
+        <v>0.51870000000000005</v>
       </c>
       <c r="L11">
-        <v>0.93530000000000002</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="M11">
-        <v>0.47520000000000001</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="N11">
-        <v>0.93459999999999999</v>
+        <v>0.92549999999999999</v>
       </c>
       <c r="O11">
-        <v>0.47610000000000002</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="P11">
-        <v>0.92110000000000003</v>
+        <v>0.92130000000000001</v>
       </c>
       <c r="Q11">
-        <v>0.50529999999999997</v>
+        <v>0.51629999999999998</v>
       </c>
       <c r="R11">
-        <v>0.91549999999999998</v>
+        <v>0.92379999999999995</v>
       </c>
       <c r="S11">
-        <v>0.49459999999999998</v>
+        <v>0.51910000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2343,58 +2343,58 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.72950000000000004</v>
+        <v>0.7782</v>
       </c>
       <c r="C12">
-        <v>0.75580000000000003</v>
+        <v>0.72819999999999996</v>
       </c>
       <c r="D12">
-        <v>0.86970000000000003</v>
+        <v>0.88919999999999999</v>
       </c>
       <c r="E12">
-        <v>0.59560000000000002</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="F12">
-        <v>0.91920000000000002</v>
+        <v>0.91869999999999996</v>
       </c>
       <c r="G12">
-        <v>0.49180000000000001</v>
+        <v>0.52370000000000005</v>
       </c>
       <c r="H12">
-        <v>0.93669999999999998</v>
+        <v>0.92259999999999998</v>
       </c>
       <c r="I12">
-        <v>0.47489999999999999</v>
+        <v>0.51890000000000003</v>
       </c>
       <c r="J12">
-        <v>0.9335</v>
+        <v>0.92610000000000003</v>
       </c>
       <c r="K12">
-        <v>0.48139999999999999</v>
+        <v>0.51870000000000005</v>
       </c>
       <c r="L12">
-        <v>0.93530000000000002</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="M12">
-        <v>0.47520000000000001</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="N12">
-        <v>0.93459999999999999</v>
+        <v>0.92559999999999998</v>
       </c>
       <c r="O12">
-        <v>0.47610000000000002</v>
+        <v>0.5262</v>
       </c>
       <c r="P12">
-        <v>0.92249999999999999</v>
+        <v>0.92130000000000001</v>
       </c>
       <c r="Q12">
-        <v>0.50509999999999999</v>
+        <v>0.51629999999999998</v>
       </c>
       <c r="R12">
-        <v>0.91549999999999998</v>
+        <v>0.92459999999999998</v>
       </c>
       <c r="S12">
-        <v>0.49459999999999998</v>
+        <v>0.51870000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2402,58 +2402,58 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.72950000000000004</v>
+        <v>0.78010000000000002</v>
       </c>
       <c r="C13">
-        <v>0.75580000000000003</v>
+        <v>0.72940000000000005</v>
       </c>
       <c r="D13">
-        <v>0.8679</v>
+        <v>0.88919999999999999</v>
       </c>
       <c r="E13">
-        <v>0.59609999999999996</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="F13">
-        <v>0.91920000000000002</v>
+        <v>0.91820000000000002</v>
       </c>
       <c r="G13">
-        <v>0.49180000000000001</v>
+        <v>0.52449999999999997</v>
       </c>
       <c r="H13">
-        <v>0.9365</v>
+        <v>0.9204</v>
       </c>
       <c r="I13">
-        <v>0.47920000000000001</v>
+        <v>0.52080000000000004</v>
       </c>
       <c r="J13">
-        <v>0.93440000000000001</v>
+        <v>0.92630000000000001</v>
       </c>
       <c r="K13">
-        <v>0.47770000000000001</v>
+        <v>0.51870000000000005</v>
       </c>
       <c r="L13">
-        <v>0.93520000000000003</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="M13">
-        <v>0.47520000000000001</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="N13">
-        <v>0.93459999999999999</v>
+        <v>0.92569999999999997</v>
       </c>
       <c r="O13">
-        <v>0.47610000000000002</v>
+        <v>0.5272</v>
       </c>
       <c r="P13">
-        <v>0.92179999999999995</v>
+        <v>0.92130000000000001</v>
       </c>
       <c r="Q13">
-        <v>0.50549999999999995</v>
+        <v>0.51629999999999998</v>
       </c>
       <c r="R13">
-        <v>0.91549999999999998</v>
+        <v>0.92459999999999998</v>
       </c>
       <c r="S13">
-        <v>0.49459999999999998</v>
+        <v>0.51859999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2461,58 +2461,58 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.7349</v>
+        <v>0.78120000000000001</v>
       </c>
       <c r="C14">
-        <v>0.76729999999999998</v>
+        <v>0.72809999999999997</v>
       </c>
       <c r="D14">
-        <v>0.86729999999999996</v>
+        <v>0.88970000000000005</v>
       </c>
       <c r="E14">
-        <v>0.59550000000000003</v>
+        <v>0.59219999999999995</v>
       </c>
       <c r="F14">
-        <v>0.91920000000000002</v>
+        <v>0.91820000000000002</v>
       </c>
       <c r="G14">
-        <v>0.49180000000000001</v>
+        <v>0.52449999999999997</v>
       </c>
       <c r="H14">
-        <v>0.93640000000000001</v>
+        <v>0.9204</v>
       </c>
       <c r="I14">
-        <v>0.47920000000000001</v>
+        <v>0.52080000000000004</v>
       </c>
       <c r="J14">
-        <v>0.93440000000000001</v>
+        <v>0.92630000000000001</v>
       </c>
       <c r="K14">
-        <v>0.47770000000000001</v>
+        <v>0.51870000000000005</v>
       </c>
       <c r="L14">
-        <v>0.93520000000000003</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="M14">
-        <v>0.47520000000000001</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="N14">
-        <v>0.93459999999999999</v>
+        <v>0.92559999999999998</v>
       </c>
       <c r="O14">
-        <v>0.47610000000000002</v>
+        <v>0.5272</v>
       </c>
       <c r="P14">
-        <v>0.92249999999999999</v>
+        <v>0.92130000000000001</v>
       </c>
       <c r="Q14">
-        <v>0.50509999999999999</v>
+        <v>0.51629999999999998</v>
       </c>
       <c r="R14">
-        <v>0.9153</v>
+        <v>0.92449999999999999</v>
       </c>
       <c r="S14">
-        <v>0.49609999999999999</v>
+        <v>0.51849999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2520,58 +2520,58 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.7349</v>
+        <v>0.78120000000000001</v>
       </c>
       <c r="C15">
-        <v>0.76729999999999998</v>
+        <v>0.72809999999999997</v>
       </c>
       <c r="D15">
-        <v>0.86580000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="E15">
-        <v>0.59760000000000002</v>
+        <v>0.59160000000000001</v>
       </c>
       <c r="F15">
-        <v>0.90010000000000001</v>
+        <v>0.91720000000000002</v>
       </c>
       <c r="G15">
-        <v>0.50039999999999996</v>
+        <v>0.52639999999999998</v>
       </c>
       <c r="H15">
-        <v>0.93669999999999998</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="I15">
-        <v>0.47489999999999999</v>
+        <v>0.52129999999999999</v>
       </c>
       <c r="J15">
-        <v>0.91739999999999999</v>
+        <v>0.92630000000000001</v>
       </c>
       <c r="K15">
-        <v>0.50880000000000003</v>
+        <v>0.51870000000000005</v>
       </c>
       <c r="L15">
-        <v>0.93520000000000003</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="M15">
-        <v>0.47520000000000001</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="N15">
-        <v>0.93459999999999999</v>
+        <v>0.92559999999999998</v>
       </c>
       <c r="O15">
-        <v>0.47610000000000002</v>
+        <v>0.5272</v>
       </c>
       <c r="P15">
-        <v>0.92179999999999995</v>
+        <v>0.92130000000000001</v>
       </c>
       <c r="Q15">
-        <v>0.50549999999999995</v>
+        <v>0.51629999999999998</v>
       </c>
       <c r="R15">
-        <v>0.91549999999999998</v>
+        <v>0.92449999999999999</v>
       </c>
       <c r="S15">
-        <v>0.49459999999999998</v>
+        <v>0.5171</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2579,58 +2579,58 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.7349</v>
+        <v>0.78120000000000001</v>
       </c>
       <c r="C16">
-        <v>0.76729999999999998</v>
+        <v>0.72809999999999997</v>
       </c>
       <c r="D16">
-        <v>0.8669</v>
+        <v>0.88980000000000004</v>
       </c>
       <c r="E16">
-        <v>0.59640000000000004</v>
+        <v>0.59150000000000003</v>
       </c>
       <c r="F16">
-        <v>0.91920000000000002</v>
+        <v>0.91869999999999996</v>
       </c>
       <c r="G16">
-        <v>0.49180000000000001</v>
+        <v>0.52459999999999996</v>
       </c>
       <c r="H16">
-        <v>0.9365</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="I16">
-        <v>0.47920000000000001</v>
+        <v>0.52029999999999998</v>
       </c>
       <c r="J16">
-        <v>0.9335</v>
+        <v>0.92630000000000001</v>
       </c>
       <c r="K16">
-        <v>0.48139999999999999</v>
+        <v>0.51870000000000005</v>
       </c>
       <c r="L16">
-        <v>0.93520000000000003</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="M16">
-        <v>0.47520000000000001</v>
+        <v>0.52170000000000005</v>
       </c>
       <c r="N16">
-        <v>0.93459999999999999</v>
+        <v>0.92559999999999998</v>
       </c>
       <c r="O16">
-        <v>0.47610000000000002</v>
+        <v>0.5272</v>
       </c>
       <c r="P16">
-        <v>0.92249999999999999</v>
+        <v>0.92130000000000001</v>
       </c>
       <c r="Q16">
-        <v>0.50509999999999999</v>
+        <v>0.51629999999999998</v>
       </c>
       <c r="R16">
-        <v>0.91549999999999998</v>
+        <v>0.92459999999999998</v>
       </c>
       <c r="S16">
-        <v>0.49459999999999998</v>
+        <v>0.51859999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -2638,58 +2638,58 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.72989999999999999</v>
+        <v>0.78120000000000001</v>
       </c>
       <c r="C17">
-        <v>0.755</v>
+        <v>0.72809999999999997</v>
       </c>
       <c r="D17">
-        <v>0.86890000000000001</v>
+        <v>0.88980000000000004</v>
       </c>
       <c r="E17">
-        <v>0.59489999999999998</v>
+        <v>0.59150000000000003</v>
       </c>
       <c r="F17">
-        <v>0.91920000000000002</v>
+        <v>0.91830000000000001</v>
       </c>
       <c r="G17">
-        <v>0.49180000000000001</v>
+        <v>0.52459999999999996</v>
       </c>
       <c r="H17">
-        <v>0.93669999999999998</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="I17">
-        <v>0.47489999999999999</v>
+        <v>0.52029999999999998</v>
       </c>
       <c r="J17">
-        <v>0.93440000000000001</v>
+        <v>0.92610000000000003</v>
       </c>
       <c r="K17">
-        <v>0.47770000000000001</v>
+        <v>0.51819999999999999</v>
       </c>
       <c r="L17">
-        <v>0.92210000000000003</v>
+        <v>0.9244</v>
       </c>
       <c r="M17">
-        <v>0.504</v>
+        <v>0.52139999999999997</v>
       </c>
       <c r="N17">
-        <v>0.93459999999999999</v>
+        <v>0.92559999999999998</v>
       </c>
       <c r="O17">
-        <v>0.47610000000000002</v>
+        <v>0.5272</v>
       </c>
       <c r="P17">
-        <v>0.92220000000000002</v>
+        <v>0.92130000000000001</v>
       </c>
       <c r="Q17">
-        <v>0.50560000000000005</v>
+        <v>0.51629999999999998</v>
       </c>
       <c r="R17">
-        <v>0.91549999999999998</v>
+        <v>0.92449999999999999</v>
       </c>
       <c r="S17">
-        <v>0.49459999999999998</v>
+        <v>0.51849999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2697,58 +2697,58 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.7349</v>
+        <v>0.78120000000000001</v>
       </c>
       <c r="C18">
-        <v>0.76729999999999998</v>
+        <v>0.72809999999999997</v>
       </c>
       <c r="D18">
-        <v>0.86950000000000005</v>
+        <v>0.88990000000000002</v>
       </c>
       <c r="E18">
-        <v>0.59419999999999995</v>
+        <v>0.59150000000000003</v>
       </c>
       <c r="F18">
-        <v>0.91920000000000002</v>
+        <v>0.91830000000000001</v>
       </c>
       <c r="G18">
-        <v>0.49180000000000001</v>
+        <v>0.52459999999999996</v>
       </c>
       <c r="H18">
-        <v>0.9365</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="I18">
-        <v>0.47910000000000003</v>
+        <v>0.52049999999999996</v>
       </c>
       <c r="J18">
-        <v>0.93440000000000001</v>
+        <v>0.92610000000000003</v>
       </c>
       <c r="K18">
-        <v>0.47770000000000001</v>
+        <v>0.51819999999999999</v>
       </c>
       <c r="L18">
-        <v>0.93520000000000003</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="M18">
-        <v>0.4753</v>
+        <v>0.5151</v>
       </c>
       <c r="N18">
-        <v>0.93459999999999999</v>
+        <v>0.92559999999999998</v>
       </c>
       <c r="O18">
-        <v>0.47610000000000002</v>
+        <v>0.5272</v>
       </c>
       <c r="P18">
-        <v>0.92779999999999996</v>
+        <v>0.92130000000000001</v>
       </c>
       <c r="Q18">
-        <v>0.50090000000000001</v>
+        <v>0.51629999999999998</v>
       </c>
       <c r="R18">
-        <v>0.91549999999999998</v>
+        <v>0.92459999999999998</v>
       </c>
       <c r="S18">
-        <v>0.49459999999999998</v>
+        <v>0.51859999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2756,58 +2756,58 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.7349</v>
+        <v>0.77839999999999998</v>
       </c>
       <c r="C19">
-        <v>0.76729999999999998</v>
+        <v>0.7268</v>
       </c>
       <c r="D19">
-        <v>0.86980000000000002</v>
+        <v>0.88990000000000002</v>
       </c>
       <c r="E19">
-        <v>0.59389999999999998</v>
+        <v>0.59150000000000003</v>
       </c>
       <c r="F19">
-        <v>0.91920000000000002</v>
+        <v>0.9173</v>
       </c>
       <c r="G19">
-        <v>0.49180000000000001</v>
+        <v>0.52659999999999996</v>
       </c>
       <c r="H19">
-        <v>0.9365</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="I19">
-        <v>0.47910000000000003</v>
+        <v>0.52029999999999998</v>
       </c>
       <c r="J19">
-        <v>0.93440000000000001</v>
+        <v>0.92610000000000003</v>
       </c>
       <c r="K19">
-        <v>0.47770000000000001</v>
+        <v>0.51819999999999999</v>
       </c>
       <c r="L19">
-        <v>0.93520000000000003</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="M19">
-        <v>0.4753</v>
+        <v>0.5151</v>
       </c>
       <c r="N19">
-        <v>0.93459999999999999</v>
+        <v>0.92559999999999998</v>
       </c>
       <c r="O19">
-        <v>0.47610000000000002</v>
+        <v>0.5272</v>
       </c>
       <c r="P19">
-        <v>0.92630000000000001</v>
+        <v>0.92130000000000001</v>
       </c>
       <c r="Q19">
-        <v>0.50160000000000005</v>
+        <v>0.51629999999999998</v>
       </c>
       <c r="R19">
-        <v>0.91549999999999998</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="S19">
-        <v>0.49459999999999998</v>
+        <v>0.51780000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2815,58 +2815,58 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.73509999999999998</v>
+        <v>0.78120000000000001</v>
       </c>
       <c r="C20">
-        <v>0.76700000000000002</v>
+        <v>0.72809999999999997</v>
       </c>
       <c r="D20">
-        <v>0.87190000000000001</v>
+        <v>0.88990000000000002</v>
       </c>
       <c r="E20">
         <v>0.59150000000000003</v>
       </c>
       <c r="F20">
-        <v>0.91920000000000002</v>
+        <v>0.91820000000000002</v>
       </c>
       <c r="G20">
-        <v>0.49180000000000001</v>
+        <v>0.52459999999999996</v>
       </c>
       <c r="H20">
-        <v>0.93669999999999998</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="I20">
-        <v>0.47489999999999999</v>
+        <v>0.52029999999999998</v>
       </c>
       <c r="J20">
-        <v>0.93440000000000001</v>
+        <v>0.92610000000000003</v>
       </c>
       <c r="K20">
-        <v>0.47770000000000001</v>
+        <v>0.51819999999999999</v>
       </c>
       <c r="L20">
-        <v>0.93520000000000003</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="M20">
-        <v>0.4753</v>
+        <v>0.5151</v>
       </c>
       <c r="N20">
-        <v>0.93459999999999999</v>
+        <v>0.92469999999999997</v>
       </c>
       <c r="O20">
-        <v>0.47610000000000002</v>
+        <v>0.52470000000000006</v>
       </c>
       <c r="P20">
-        <v>0.92779999999999996</v>
+        <v>0.92130000000000001</v>
       </c>
       <c r="Q20">
-        <v>0.50080000000000002</v>
+        <v>0.51629999999999998</v>
       </c>
       <c r="R20">
-        <v>0.9153</v>
+        <v>0.92430000000000001</v>
       </c>
       <c r="S20">
-        <v>0.49609999999999999</v>
+        <v>0.51929999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -2874,58 +2874,58 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.73509999999999998</v>
+        <v>0.77839999999999998</v>
       </c>
       <c r="C21">
-        <v>0.76700000000000002</v>
+        <v>0.7268</v>
       </c>
       <c r="D21">
-        <v>0.86980000000000002</v>
+        <v>0.88990000000000002</v>
       </c>
       <c r="E21">
-        <v>0.59389999999999998</v>
+        <v>0.59150000000000003</v>
       </c>
       <c r="F21">
-        <v>0.91920000000000002</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="G21">
-        <v>0.49180000000000001</v>
+        <v>0.52490000000000003</v>
       </c>
       <c r="H21">
-        <v>0.93689999999999996</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="I21">
-        <v>0.4788</v>
+        <v>0.52049999999999996</v>
       </c>
       <c r="J21">
-        <v>0.93440000000000001</v>
+        <v>0.92610000000000003</v>
       </c>
       <c r="K21">
-        <v>0.47770000000000001</v>
+        <v>0.51819999999999999</v>
       </c>
       <c r="L21">
-        <v>0.93520000000000003</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="M21">
-        <v>0.4753</v>
+        <v>0.5151</v>
       </c>
       <c r="N21">
-        <v>0.93459999999999999</v>
+        <v>0.92569999999999997</v>
       </c>
       <c r="O21">
-        <v>0.47610000000000002</v>
+        <v>0.5272</v>
       </c>
       <c r="P21">
-        <v>0.92779999999999996</v>
+        <v>0.92130000000000001</v>
       </c>
       <c r="Q21">
-        <v>0.50080000000000002</v>
+        <v>0.51629999999999998</v>
       </c>
       <c r="R21">
-        <v>0.91549999999999998</v>
+        <v>0.92430000000000001</v>
       </c>
       <c r="S21">
-        <v>0.49459999999999998</v>
+        <v>0.51929999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2934,39 +2934,39 @@
       </c>
       <c r="B22">
         <f>MAX(B2:B21)</f>
-        <v>0.88439999999999996</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22" si="0">MAX(D2:D21)</f>
-        <v>0.89959999999999996</v>
+        <v>0.91469999999999996</v>
       </c>
       <c r="F22">
         <f t="shared" ref="F22" si="1">MAX(F2:F21)</f>
-        <v>0.91920000000000002</v>
+        <v>0.92579999999999996</v>
       </c>
       <c r="H22">
         <f t="shared" ref="H22" si="2">MAX(H2:H21)</f>
-        <v>0.93689999999999996</v>
+        <v>0.92710000000000004</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22" si="3">MAX(J2:J21)</f>
-        <v>0.9345</v>
+        <v>0.92720000000000002</v>
       </c>
       <c r="L22">
         <f t="shared" ref="L22" si="4">MAX(L2:L21)</f>
-        <v>0.93530000000000002</v>
+        <v>0.92490000000000006</v>
       </c>
       <c r="N22">
         <f t="shared" ref="N22" si="5">MAX(N2:N21)</f>
-        <v>0.93459999999999999</v>
+        <v>0.92649999999999999</v>
       </c>
       <c r="P22">
         <f t="shared" ref="P22" si="6">MAX(P2:P21)</f>
-        <v>0.92779999999999996</v>
+        <v>0.92420000000000002</v>
       </c>
       <c r="R22">
         <f t="shared" ref="R22" si="7">MAX(R2:R21)</f>
-        <v>0.91549999999999998</v>
+        <v>0.9254</v>
       </c>
     </row>
   </sheetData>
